--- a/data/Austerlitz_seizoen_2016-2017.xlsx
+++ b/data/Austerlitz_seizoen_2016-2017.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2016-09-02" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="2016-09-09" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="2016-09-16" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="2016-09-23" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,31 +22,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="I43" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">niet zeker of juiste wedstrijd</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="41">
   <si>
     <t xml:space="preserve">Baan</t>
   </si>
@@ -162,6 +140,12 @@
   </si>
   <si>
     <t xml:space="preserve">Henri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bye</t>
   </si>
 </sst>
 </file>
@@ -236,8 +220,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -265,734 +253,737 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" s="0" t="n">
+      <c r="A2" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0" t="n">
+      <c r="E2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" s="0" t="s">
+      <c r="A3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" s="0" t="n">
+      <c r="E3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="A4" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="0" t="n">
+      <c r="E4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" s="0" t="s">
+      <c r="A5" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" s="0" t="n">
+      <c r="E5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" s="0" t="s">
+      <c r="A6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" s="0" t="n">
+      <c r="E6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" s="0" t="s">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" s="0" t="n">
+      <c r="E7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" s="0" t="s">
+      <c r="A8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" s="0" t="n">
+      <c r="E8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" s="0" t="s">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F9" s="0" t="n">
+      <c r="E9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" s="0" t="s">
+      <c r="A10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" s="0" t="n">
+      <c r="E10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C11" s="0" t="s">
+      <c r="A11" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="0" t="n">
+      <c r="E11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" s="0" t="s">
+      <c r="A12" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="0" t="n">
+      <c r="E12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" s="0" t="s">
+      <c r="A13" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F13" s="0" t="n">
+      <c r="E13" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" s="0" t="s">
+      <c r="A14" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F14" s="0" t="n">
+      <c r="E14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" s="0" t="s">
+      <c r="A15" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="0" t="n">
+      <c r="E15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C16" s="0" t="s">
+      <c r="A16" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F16" s="0" t="n">
+      <c r="E16" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C17" s="0" t="s">
+      <c r="A17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F17" s="0" t="n">
+      <c r="E17" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" s="0" t="s">
+      <c r="A18" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="0" t="n">
+      <c r="E18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" s="0" t="s">
+      <c r="A19" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F19" s="0" t="n">
+      <c r="E19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C20" s="0" t="s">
+      <c r="A20" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F20" s="0" t="n">
+      <c r="E20" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C21" s="0" t="s">
+      <c r="A21" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F21" s="0" t="n">
+      <c r="E21" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C22" s="0" t="s">
+      <c r="A22" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="0" t="n">
+      <c r="E22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C23" s="0" t="s">
+      <c r="A23" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="0" t="n">
+      <c r="E23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C24" s="0" t="s">
+      <c r="A24" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F24" s="0" t="n">
+      <c r="E24" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C25" s="0" t="s">
+      <c r="A25" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F25" s="0" t="n">
+      <c r="E25" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B26" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C26" s="0" t="s">
+      <c r="A26" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="0" t="n">
+      <c r="E26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C27" s="0" t="s">
+      <c r="A27" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="0" t="n">
+      <c r="E27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" s="0" t="s">
+      <c r="A28" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F28" s="0" t="n">
+      <c r="E28" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" s="0" t="s">
+      <c r="A29" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" s="0" t="n">
+      <c r="E29" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" s="0" t="s">
+      <c r="A30" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F30" s="0" t="n">
+      <c r="E30" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" s="0" t="s">
+      <c r="A31" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F31" s="0" t="n">
+      <c r="E31" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F31" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" s="0" t="s">
+      <c r="A32" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F32" s="0" t="n">
+      <c r="E32" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" s="0" t="s">
+      <c r="A33" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="0" t="n">
+      <c r="E33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C34" s="0" t="s">
+      <c r="A34" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F34" s="0" t="n">
+      <c r="E34" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F34" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" s="0" t="s">
+      <c r="A35" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G35" s="0" t="n">
+      <c r="E35" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1014,997 +1005,1000 @@
   </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I43" activeCellId="0" sqref="I43"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I44" activeCellId="0" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="0" t="s">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="0" t="n">
+      <c r="E2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="0" t="s">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="0" t="n">
+      <c r="E3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="0" t="n">
+      <c r="E4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="0" t="s">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" s="0" t="n">
+      <c r="E5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="0" t="s">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="0" t="n">
+      <c r="E6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="0" t="s">
+      <c r="A7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" s="0" t="n">
+      <c r="E7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="0" t="s">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="0" t="n">
+      <c r="E8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="0" t="s">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="0" t="n">
+      <c r="E9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="0" t="s">
+      <c r="A10" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="0" t="n">
+      <c r="E10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="0" t="s">
+      <c r="A11" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="0" t="n">
+      <c r="E11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="0" t="s">
+      <c r="A12" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G12" s="0" t="n">
+      <c r="E12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" s="0" t="s">
+      <c r="A13" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F13" s="0" t="n">
+      <c r="E13" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C14" s="0" t="s">
+      <c r="A14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F14" s="0" t="n">
+      <c r="E14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C15" s="0" t="s">
+      <c r="A15" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="0" t="n">
+      <c r="E15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" s="0" t="s">
+      <c r="A16" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="0" t="n">
+      <c r="E16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" s="0" t="s">
+      <c r="A17" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="0" t="n">
+      <c r="E17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" s="0" t="s">
+      <c r="A18" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="0" t="n">
+      <c r="E18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C19" s="0" t="s">
+      <c r="A19" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F19" s="0" t="n">
+      <c r="E19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C20" s="0" t="s">
+      <c r="A20" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="0" t="n">
+      <c r="E20" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C21" s="0" t="s">
+      <c r="A21" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="0" t="n">
+      <c r="E21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C22" s="0" t="s">
+      <c r="A22" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F22" s="0" t="n">
+      <c r="E22" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C23" s="0" t="s">
+      <c r="A23" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="0" t="n">
+      <c r="E23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C24" s="0" t="s">
+      <c r="A24" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="0" t="n">
+      <c r="E24" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C25" s="0" t="s">
+      <c r="A25" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F25" s="0" t="n">
+      <c r="E25" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B26" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C26" s="0" t="s">
+      <c r="A26" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" s="0" t="n">
+      <c r="E26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C27" s="0" t="s">
+      <c r="A27" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="0" t="n">
+      <c r="E27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C28" s="0" t="s">
+      <c r="A28" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="0" t="n">
+      <c r="E28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C29" s="0" t="s">
+      <c r="A29" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" s="0" t="n">
+      <c r="E29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C30" s="0" t="s">
+      <c r="A30" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="0" t="n">
+      <c r="E30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C31" s="0" t="s">
+      <c r="A31" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" s="0" t="n">
+      <c r="E31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C32" s="0" t="s">
+      <c r="A32" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F32" s="0" t="n">
+      <c r="E32" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C33" s="0" t="s">
+      <c r="A33" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F33" s="0" t="n">
+      <c r="E33" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C34" s="0" t="s">
+      <c r="A34" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="0" t="n">
+      <c r="E34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C35" s="0" t="s">
+      <c r="A35" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="0" t="n">
+      <c r="E35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C36" s="0" t="s">
+      <c r="A36" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F36" s="0" t="n">
+      <c r="E36" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F36" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C37" s="0" t="s">
+      <c r="A37" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="0" t="n">
+      <c r="E37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C38" s="0" t="s">
+      <c r="A38" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E38" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F38" s="0" t="n">
+      <c r="E38" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F38" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C39" s="0" t="s">
+      <c r="A39" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F39" s="0" t="n">
+      <c r="E39" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F39" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C40" s="0" t="s">
+      <c r="A40" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F40" s="0" t="n">
+      <c r="E40" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F40" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C41" s="0" t="s">
+      <c r="A41" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" s="0" t="n">
+      <c r="E41" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C42" s="0" t="s">
+      <c r="A42" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F42" s="0" t="n">
+      <c r="E42" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F42" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C43" s="0" t="s">
+      <c r="A43" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F43" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" s="0" t="n">
+      <c r="E43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I43" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B44" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C44" s="0" t="s">
+      <c r="A44" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E44" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F44" s="0" t="n">
+      <c r="E44" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F44" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B45" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C45" s="0" t="s">
+      <c r="A45" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F45" s="0" t="n">
+      <c r="E45" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B46" s="0" t="n">
+      <c r="A46" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B46" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G46" s="0" t="n">
+      <c r="E46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G46" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B47" s="0" t="n">
+      <c r="A47" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B47" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D47" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F47" s="0" t="n">
+      <c r="E47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2016,7 +2010,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2028,84 +2021,1050 @@
   <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" s="1" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F42" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F45" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L47"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>2</v>
@@ -2113,65 +3072,62 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>100</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2179,82 +3135,85 @@
         <v>4</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>5</v>
+      <c r="A9" s="0" t="s">
+        <v>40</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G10" s="0" t="n">
-        <v>2</v>
+      <c r="L10" s="0" t="n">
+        <v>107</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2262,13 +3221,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>2</v>
@@ -2279,36 +3238,36 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>2</v>
@@ -2319,45 +3278,42 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>40</v>
       </c>
       <c r="C15" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="E15" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2365,36 +3321,36 @@
         <v>3</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>2</v>
@@ -2405,76 +3361,73 @@
         <v>4</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>2</v>
@@ -2485,122 +3438,122 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2608,125 +3561,122 @@
         <v>4</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G32" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K33" s="0" t="n">
-        <v>119</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2734,13 +3684,13 @@
         <v>6</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>0</v>
@@ -2751,19 +3701,19 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>2</v>
@@ -2771,16 +3721,16 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>0</v>
@@ -2794,33 +3744,33 @@
         <v>3</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>40</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>2</v>
@@ -2831,82 +3781,85 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2914,59 +3867,102 @@
         <v>5</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H43" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>29</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D45" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E45" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F45" s="0" t="n">
-        <v>1</v>
+      <c r="D47" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/Austerlitz_seizoen_2016-2017.xlsx
+++ b/data/Austerlitz_seizoen_2016-2017.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="2016-09-02" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="2016-09-09" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="2016-09-16" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="2016-09-23" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="2016-09-30" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="41">
   <si>
     <t xml:space="preserve">Baan</t>
   </si>
@@ -254,7 +255,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1011,7 +1012,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2026,7 +2027,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2983,8 +2984,1008 @@
   </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L43"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J34" activeCellId="0" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3032,16 +4033,16 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>1</v>
@@ -3058,30 +4059,30 @@
         <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>2</v>
@@ -3092,79 +4093,76 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>40</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>0</v>
@@ -3174,17 +4172,17 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>40</v>
+      <c r="A9" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>0</v>
@@ -3195,59 +4193,56 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L10" s="0" t="n">
-        <v>107</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>2</v>
@@ -3258,76 +4253,76 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="E14" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>40</v>
+        <v>6</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>2</v>
@@ -3344,13 +4339,13 @@
         <v>3</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>2</v>
@@ -3358,62 +4353,62 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3421,33 +4416,33 @@
         <v>3</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>2</v>
@@ -3464,90 +4459,93 @@
         <v>3</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>102</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B26" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>40</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>2</v>
@@ -3558,56 +4556,56 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>2</v>
@@ -3618,105 +4616,111 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="G31" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="0" t="s">
-        <v>31</v>
-      </c>
       <c r="E35" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>125</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3727,16 +4731,16 @@
         <v>2</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3747,10 +4751,10 @@
         <v>1</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>2</v>
@@ -3761,16 +4765,16 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>40</v>
+        <v>6</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>2</v>
@@ -3781,70 +4785,67 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G40" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>1</v>
@@ -3853,7 +4854,7 @@
         <v>20</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>2</v>
@@ -3867,101 +4868,18 @@
         <v>5</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H43" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E44" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F44" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F47" s="0" t="n">
         <v>2</v>
       </c>
     </row>

--- a/data/Austerlitz_seizoen_2016-2017.xlsx
+++ b/data/Austerlitz_seizoen_2016-2017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="2016-09-02" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,7 @@
     <sheet name="2016-09-16" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="2016-09-23" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="2016-09-30" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="2016-09-07" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="42">
   <si>
     <t xml:space="preserve">Baan</t>
   </si>
@@ -148,6 +149,9 @@
   <si>
     <t xml:space="preserve">bye</t>
   </si>
+  <si>
+    <t xml:space="preserve">?</t>
+  </si>
 </sst>
 </file>
 
@@ -255,7 +259,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1012,7 +1016,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2027,7 +2031,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2989,9 +2993,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3984,8 +3985,925 @@
   </sheetPr>
   <dimension ref="A1:L43"/>
   <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L37"/>
+  <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J34" activeCellId="0" sqref="J34"/>
+      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4033,22 +4951,22 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4059,16 +4977,16 @@
         <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4079,10 +4997,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>2</v>
@@ -4090,39 +5008,42 @@
       <c r="F4" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G4" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>4</v>
+      <c r="A5" s="0" t="s">
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>40</v>
+        <v>4</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>2</v>
@@ -4133,39 +5054,39 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>2</v>
@@ -4173,19 +5094,19 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>2</v>
@@ -4193,16 +5114,16 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>2</v>
@@ -4213,36 +5134,36 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>2</v>
@@ -4253,76 +5174,76 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>28</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>2</v>
@@ -4333,39 +5254,39 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>2</v>
@@ -4373,96 +5294,99 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>0</v>
@@ -4473,65 +5397,62 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="K25" s="0" t="n">
-        <v>102</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>40</v>
+        <v>3</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4542,30 +5463,30 @@
         <v>2</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>2</v>
@@ -4576,22 +5497,22 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4599,56 +5520,56 @@
         <v>5</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>2</v>
@@ -4656,48 +5577,42 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H34" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4705,13 +5620,13 @@
         <v>6</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>2</v>
@@ -4720,7 +5635,7 @@
         <v>1</v>
       </c>
       <c r="K35" s="0" t="n">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4728,19 +5643,22 @@
         <v>5</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4751,136 +5669,16 @@
         <v>1</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F38" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E39" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F39" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E40" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F40" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F41" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E42" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F42" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F43" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/Austerlitz_seizoen_2016-2017.xlsx
+++ b/data/Austerlitz_seizoen_2016-2017.xlsx
@@ -13,7 +13,7 @@
     <sheet name="2016-09-16" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="2016-09-23" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="2016-09-30" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="2016-09-07" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="2016-10-07" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -258,9 +258,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1015,9 +1012,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2030,9 +2024,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2993,6 +2984,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3990,9 +3984,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4908,7 +4899,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/data/Austerlitz_seizoen_2016-2017.xlsx
+++ b/data/Austerlitz_seizoen_2016-2017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="2016-09-02" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,6 +14,7 @@
     <sheet name="2016-09-23" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="2016-09-30" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="2016-10-07" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="2016-10-14" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="42">
   <si>
     <t xml:space="preserve">Baan</t>
   </si>
@@ -258,6 +259,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1012,6 +1016,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2024,6 +2031,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2985,7 +2995,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3984,6 +3994,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4893,13 +4906,807 @@
   </sheetPr>
   <dimension ref="A1:L37"/>
   <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L47"/>
+  <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
+      <selection pane="topLeft" activeCell="I28" activeCellId="0" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4942,56 +5749,56 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>40</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>2</v>
@@ -4999,108 +5806,105 @@
       <c r="F4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>41</v>
+      <c r="A5" s="0" t="n">
+        <v>6</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5111,10 +5915,10 @@
         <v>4</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>2</v>
@@ -5125,16 +5929,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>2</v>
@@ -5145,36 +5949,36 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>2</v>
@@ -5191,56 +5995,59 @@
         <v>3</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5251,16 +6058,16 @@
         <v>3</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5271,10 +6078,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>1</v>
@@ -5285,7 +6092,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>3</v>
@@ -5294,30 +6101,27 @@
         <v>12</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>2</v>
@@ -5328,16 +6132,16 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>2</v>
@@ -5348,82 +6152,82 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>40</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5434,10 +6238,10 @@
         <v>2</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>2</v>
@@ -5448,56 +6252,59 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>2</v>
@@ -5508,21 +6315,24 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5531,19 +6341,19 @@
         <v>4</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5551,36 +6361,36 @@
         <v>3</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>2</v>
@@ -5591,16 +6401,16 @@
         <v>4</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>2</v>
@@ -5611,65 +6421,262 @@
         <v>6</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" s="0" t="n">
-        <v>112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="H36" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C37" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>0</v>
+      <c r="E45" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/Austerlitz_seizoen_2016-2017.xlsx
+++ b/data/Austerlitz_seizoen_2016-2017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="2016-09-02" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,6 +15,8 @@
     <sheet name="2016-09-30" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="2016-10-07" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="2016-10-14" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="2016-10-21" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="2016-10-28" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="42">
   <si>
     <t xml:space="preserve">Baan</t>
   </si>
@@ -260,7 +262,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1017,7 +1019,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2032,7 +2034,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2995,7 +2997,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3995,7 +3997,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4911,6 +4913,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -5700,8 +5705,1005 @@
   </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I28" activeCellId="0" sqref="I28"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L37"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -5749,87 +6751,90 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>40</v>
+        <v>5</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>4</v>
@@ -5838,27 +6843,30 @@
         <v>20</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>110</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>2</v>
@@ -5869,22 +6877,22 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5892,13 +6900,813 @@
         <v>6</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L45"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A46" activeCellId="0" sqref="A46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>2</v>
@@ -5909,42 +7717,45 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5955,30 +7766,33 @@
         <v>4</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>2</v>
@@ -5989,85 +7803,82 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6078,10 +7889,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>1</v>
@@ -6092,16 +7903,16 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>2</v>
@@ -6112,56 +7923,59 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C20" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>21</v>
-      </c>
       <c r="E20" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>106</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>40</v>
+      <c r="B22" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>2</v>
@@ -6172,168 +7986,168 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H30" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6344,7 +8158,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>20</v>
@@ -6355,39 +8169,42 @@
       <c r="F31" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="L31" s="0" t="n">
+        <v>143</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>0</v>
@@ -6401,39 +8218,42 @@
         <v>4</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6441,36 +8261,36 @@
         <v>2</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C37" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="0" t="s">
-        <v>19</v>
-      </c>
       <c r="E37" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>2</v>
@@ -6484,10 +8304,10 @@
         <v>1</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>2</v>
@@ -6504,33 +8324,33 @@
         <v>1</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>2</v>
@@ -6538,65 +8358,68 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <v>114</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G43" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6607,10 +8430,10 @@
         <v>1</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>0</v>
@@ -6621,61 +8444,21 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" s="0" t="n">
         <v>2</v>
       </c>
     </row>

--- a/data/Austerlitz_seizoen_2016-2017.xlsx
+++ b/data/Austerlitz_seizoen_2016-2017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="2016-09-02" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,6 +17,7 @@
     <sheet name="2016-10-14" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="2016-10-21" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="2016-10-28" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="2016-11-04" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="43">
   <si>
     <t xml:space="preserve">Baan</t>
   </si>
@@ -155,6 +156,9 @@
   <si>
     <t xml:space="preserve">?</t>
   </si>
+  <si>
+    <t xml:space="preserve">Kim</t>
+  </si>
 </sst>
 </file>
 
@@ -262,7 +266,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -999,6 +1003,892 @@
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L41"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1019,7 +1909,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2034,7 +2924,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2996,9 +3886,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3997,7 +4884,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4914,7 +5801,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5710,9 +6597,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -6708,7 +7592,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7508,13 +8392,13 @@
   </sheetPr>
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A46" activeCellId="0" sqref="A46"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/data/Austerlitz_seizoen_2016-2017.xlsx
+++ b/data/Austerlitz_seizoen_2016-2017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="2016-09-02" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,6 +18,7 @@
     <sheet name="2016-10-21" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="2016-10-28" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="2016-11-04" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="2016-11-11" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="44">
   <si>
     <t xml:space="preserve">Baan</t>
   </si>
@@ -159,6 +160,9 @@
   <si>
     <t xml:space="preserve">Kim</t>
   </si>
+  <si>
+    <t xml:space="preserve">nye</t>
+  </si>
 </sst>
 </file>
 
@@ -266,7 +270,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1017,13 +1021,896 @@
   </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L43"/>
+  <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
+      <selection pane="topLeft" activeCell="C43" activeCellId="0" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1066,128 +1953,125 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="I6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>105</v>
+      <c r="H6" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>2</v>
@@ -1198,22 +2082,22 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1224,16 +2108,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1244,16 +2128,16 @@
         <v>4</v>
       </c>
       <c r="C10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="E10" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1264,33 +2148,33 @@
         <v>4</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>43</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>2</v>
@@ -1298,22 +2182,22 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1321,13 +2205,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>0</v>
@@ -1338,16 +2222,16 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>17</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>2</v>
@@ -1358,42 +2242,42 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>40</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1404,16 +2288,16 @@
         <v>3</v>
       </c>
       <c r="C18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>18</v>
-      </c>
       <c r="E18" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1424,56 +2308,59 @@
         <v>3</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>115</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1481,13 +2368,13 @@
         <v>6</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>0</v>
@@ -1498,44 +2385,44 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1547,27 +2434,27 @@
         <v>2</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>13</v>
@@ -1587,16 +2474,16 @@
         <v>2</v>
       </c>
       <c r="C27" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="E27" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1607,16 +2494,16 @@
         <v>2</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1627,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>15</v>
@@ -1638,9 +2525,6 @@
       <c r="F29" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G29" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
@@ -1650,13 +2534,13 @@
         <v>2</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>2</v>
@@ -1670,15 +2554,18 @@
         <v>2</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1687,96 +2574,93 @@
         <v>2</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H32" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>0</v>
@@ -1787,59 +2671,59 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>2</v>
@@ -1847,16 +2731,16 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E40" s="0" t="n">
         <v>1</v>
@@ -1867,22 +2751,62 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D41" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" s="0" t="n">
-        <v>2</v>
+      <c r="D42" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1909,7 +2833,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2924,7 +3848,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3886,6 +4810,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4884,7 +5811,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5800,9 +6727,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -6597,6 +7521,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -7592,7 +8519,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8398,7 +9325,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/data/Austerlitz_seizoen_2016-2017.xlsx
+++ b/data/Austerlitz_seizoen_2016-2017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="2016-09-02" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,6 +19,7 @@
     <sheet name="2016-10-28" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="2016-11-04" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="2016-11-11" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="2016-11-18" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="44">
   <si>
     <t xml:space="preserve">Baan</t>
   </si>
@@ -264,13 +265,13 @@
   </sheetPr>
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.52040816326531"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1006,7 +1007,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1021,11 +1022,14 @@
   </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.44387755102041"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1889,7 +1893,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1904,13 +1908,13 @@
   </sheetPr>
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C43" activeCellId="0" sqref="C43"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3010204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2812,7 +2816,921 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L43"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2827,13 +3745,13 @@
   </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I44" activeCellId="0" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.52040816326531"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3827,7 +4745,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3842,13 +4760,13 @@
   </sheetPr>
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.52040816326531"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4790,7 +5708,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4805,13 +5723,13 @@
   </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.35204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5790,7 +6708,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5805,13 +6723,13 @@
   </sheetPr>
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.52040816326531"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6707,7 +7625,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -6722,11 +7640,14 @@
   </sheetPr>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.44387755102041"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -7501,7 +8422,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -7516,13 +8437,13 @@
   </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.35204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8498,7 +9419,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -8513,13 +9434,13 @@
   </sheetPr>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.52040816326531"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9304,7 +10225,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -9319,13 +10240,13 @@
   </sheetPr>
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.52040816326531"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10276,7 +11197,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/data/Austerlitz_seizoen_2016-2017.xlsx
+++ b/data/Austerlitz_seizoen_2016-2017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="2016-09-02" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,6 +20,8 @@
     <sheet name="2016-11-04" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="2016-11-11" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="2016-11-18" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="2016-11-25" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="2016-12-02" sheetId="14" state="visible" r:id="rId15"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="44">
   <si>
     <t xml:space="preserve">Baan</t>
   </si>
@@ -271,7 +273,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.52040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1027,9 +1029,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.44387755102041"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1914,7 +1913,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2831,7 +2830,1792 @@
   </sheetPr>
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L41"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L43"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
     </sheetView>
   </sheetViews>
@@ -2880,16 +4664,16 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>2</v>
@@ -2900,36 +4684,36 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>2</v>
@@ -2940,13 +4724,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>24</v>
@@ -2960,16 +4744,16 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>2</v>
@@ -2980,56 +4764,56 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>2</v>
@@ -3040,16 +4824,16 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>0</v>
@@ -3060,76 +4844,82 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>0</v>
@@ -3140,39 +4930,39 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>2</v>
@@ -3182,40 +4972,40 @@
       <c r="A17" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>2</v>
+      <c r="B17" s="0" t="s">
+        <v>40</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3226,16 +5016,16 @@
         <v>3</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3246,10 +5036,10 @@
         <v>3</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>2</v>
@@ -3260,39 +5050,36 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>40</v>
+        <v>4</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>1</v>
@@ -3303,42 +5090,42 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3349,30 +5136,30 @@
         <v>2</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>2</v>
@@ -3392,27 +5179,27 @@
         <v>30</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>2</v>
@@ -3432,33 +5219,33 @@
         <v>18</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G29" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>2</v>
@@ -3466,22 +5253,22 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>40</v>
+        <v>4</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3492,7 +5279,7 @@
         <v>2</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>20</v>
@@ -3508,31 +5295,31 @@
       <c r="A33" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B33" s="0" t="n">
-        <v>1</v>
+      <c r="B33" s="0" t="s">
+        <v>40</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>32</v>
@@ -3546,7 +5333,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>1</v>
@@ -3555,7 +5342,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>0</v>
@@ -3566,50 +5353,47 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>27</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="H36" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>1</v>
@@ -3618,119 +5402,122 @@
         <v>29</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3751,7 +5538,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.52040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4766,7 +6553,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.52040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5729,7 +7516,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.35204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6729,7 +8516,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.52040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7645,9 +9432,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.44387755102041"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -8443,7 +10227,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.35204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9440,7 +11224,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.52040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10246,7 +12030,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.52040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/data/Austerlitz_seizoen_2016-2017.xlsx
+++ b/data/Austerlitz_seizoen_2016-2017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="2016-09-02" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,11 @@
     <sheet name="2016-11-18" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="2016-11-25" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="2016-12-02" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="2016-12-09" sheetId="15" state="visible" r:id="rId16"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="44">
   <si>
     <t xml:space="preserve">Baan</t>
   </si>
@@ -260,6 +264,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -272,9 +280,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1029,6 +1034,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1913,7 +1921,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2835,6 +2843,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3746,9 +3757,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4615,8 +4623,925 @@
   </sheetPr>
   <dimension ref="A1:L43"/>
   <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L43"/>
+  <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
+      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4667,33 +5592,33 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>2</v>
@@ -4704,22 +5629,22 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4727,13 +5652,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>1</v>
@@ -4744,36 +5669,36 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>2</v>
@@ -4784,22 +5709,22 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4807,13 +5732,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>2</v>
@@ -4824,88 +5749,82 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4916,136 +5835,136 @@
         <v>3</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>40</v>
+        <v>5</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5053,59 +5972,59 @@
         <v>4</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>40</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5116,35 +6035,41 @@
         <v>3</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>114</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5153,33 +6078,33 @@
         <v>4</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>36</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>2</v>
@@ -5190,22 +6115,22 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5213,39 +6138,36 @@
         <v>5</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="G29" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>2</v>
@@ -5253,79 +6175,85 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>40</v>
+      <c r="B33" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L33" s="0" t="n">
+        <v>110</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>2</v>
@@ -5333,16 +6261,16 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>0</v>
@@ -5353,16 +6281,16 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>1</v>
@@ -5372,17 +6300,17 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
-        <v>6</v>
+      <c r="A37" s="0" t="s">
+        <v>41</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>0</v>
@@ -5393,42 +6321,45 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5436,19 +6367,19 @@
         <v>3</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G40" s="0" t="n">
         <v>1</v>
@@ -5462,13 +6393,13 @@
         <v>1</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>2</v>
@@ -5476,16 +6407,16 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>0</v>
@@ -5496,25 +6427,26 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>40</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L43"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5522,6 +6454,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5537,9 +6470,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -6552,9 +7482,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -7516,7 +8443,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8515,9 +9442,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -9432,6 +10356,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -10227,7 +11154,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11223,9 +12150,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -12029,9 +12953,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">

--- a/data/Austerlitz_seizoen_2016-2017.xlsx
+++ b/data/Austerlitz_seizoen_2016-2017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="2016-09-02" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,9 +23,12 @@
     <sheet name="2016-11-25" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="2016-12-02" sheetId="14" state="visible" r:id="rId15"/>
     <sheet name="2016-12-09" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="Koppel 2016-12-16" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="2016-12-23" sheetId="17" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="50">
   <si>
     <t xml:space="preserve">Baan</t>
   </si>
@@ -170,6 +173,24 @@
   <si>
     <t xml:space="preserve">nye</t>
   </si>
+  <si>
+    <t xml:space="preserve">Speler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lollies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finishes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erki H</t>
+  </si>
 </sst>
 </file>
 
@@ -280,6 +301,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1035,7 +1059,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1921,7 +1945,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2844,7 +2868,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3757,6 +3781,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4628,9 +4655,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -5540,13 +5564,13 @@
   </sheetPr>
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6455,6 +6479,1135 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L41"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L38" s="0" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -6470,6 +7623,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -7482,6 +8638,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -8443,7 +9602,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9442,6 +10601,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -10357,7 +11519,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11154,7 +12316,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12150,6 +13312,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -12953,6 +14118,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">

--- a/data/Austerlitz_seizoen_2016-2017.xlsx
+++ b/data/Austerlitz_seizoen_2016-2017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="2016-09-02" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,6 +29,9 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="50">
   <si>
     <t xml:space="preserve">Baan</t>
   </si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve">Points</t>
   </si>
   <si>
+    <t xml:space="preserve">Matches</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lollies</t>
   </si>
   <si>
@@ -187,9 +193,6 @@
   </si>
   <si>
     <t xml:space="preserve">Finishes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erki H</t>
   </si>
 </sst>
 </file>
@@ -301,9 +304,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1059,7 +1059,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1945,7 +1945,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2868,7 +2868,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3781,9 +3781,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4655,6 +4652,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -5570,7 +5570,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6487,15 +6487,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6505,7 +6505,7 @@
       <c r="B1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="0" t="s">
         <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -6513,6 +6513,9 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6522,7 +6525,10 @@
       <c r="B2" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="C2" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2" s="0" t="n">
         <v>101</v>
       </c>
     </row>
@@ -6533,8 +6539,14 @@
       <c r="B3" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
+      <c r="C3" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>112</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6544,6 +6556,9 @@
       <c r="B4" s="0" t="n">
         <v>7</v>
       </c>
+      <c r="C4" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -6552,6 +6567,9 @@
       <c r="B5" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="C5" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -6565,6 +6583,9 @@
       <c r="B7" s="0" t="n">
         <v>7</v>
       </c>
+      <c r="C7" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -6573,6 +6594,9 @@
       <c r="B8" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="C8" s="0" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -6581,7 +6605,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6596,6 +6620,9 @@
       <c r="B12" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="C12" s="0" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -6605,6 +6632,9 @@
         <v>7</v>
       </c>
       <c r="C13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D13" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6615,6 +6645,9 @@
       <c r="B14" s="0" t="n">
         <v>13</v>
       </c>
+      <c r="C14" s="0" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
@@ -6633,6 +6666,9 @@
       <c r="B17" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="C17" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
@@ -6641,6 +6677,9 @@
       <c r="B18" s="0" t="n">
         <v>18</v>
       </c>
+      <c r="C18" s="0" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -6664,6 +6703,9 @@
       <c r="B22" s="0" t="n">
         <v>7</v>
       </c>
+      <c r="C22" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
@@ -6682,6 +6724,9 @@
       <c r="B25" s="0" t="n">
         <v>13</v>
       </c>
+      <c r="C25" s="0" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
@@ -6695,6 +6740,9 @@
       <c r="B27" s="0" t="n">
         <v>11</v>
       </c>
+      <c r="C27" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
@@ -6703,6 +6751,9 @@
       <c r="B28" s="0" t="n">
         <v>11</v>
       </c>
+      <c r="C28" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
@@ -6717,6 +6768,9 @@
         <v>19</v>
       </c>
       <c r="C30" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D30" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6738,13 +6792,13 @@
   </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7623,9 +7677,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -8638,9 +8689,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -9602,7 +9650,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10601,9 +10649,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -11519,7 +11564,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12316,7 +12361,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13312,9 +13357,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -14118,9 +14160,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">

--- a/data/Austerlitz_seizoen_2016-2017.xlsx
+++ b/data/Austerlitz_seizoen_2016-2017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="2016-09-02" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,6 +25,8 @@
     <sheet name="2016-12-09" sheetId="15" state="visible" r:id="rId16"/>
     <sheet name="Koppel 2016-12-16" sheetId="16" state="visible" r:id="rId17"/>
     <sheet name="2016-12-23" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="2017-01-06" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="2017-01-13" sheetId="19" state="visible" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
@@ -32,6 +34,8 @@
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -43,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="50">
   <si>
     <t xml:space="preserve">Baan</t>
   </si>
@@ -304,6 +308,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1059,7 +1066,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1944,9 +1951,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2868,7 +2872,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3781,6 +3785,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4653,7 +4660,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5569,9 +5576,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -6489,13 +6493,13 @@
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6526,7 +6530,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>101</v>
@@ -6540,7 +6544,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>1</v>
@@ -6557,7 +6561,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6568,7 +6572,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6584,7 +6588,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6595,7 +6599,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6621,7 +6625,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6632,7 +6636,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>1</v>
@@ -6646,7 +6650,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6667,7 +6671,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6678,7 +6682,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6704,7 +6708,7 @@
         <v>7</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6725,7 +6729,7 @@
         <v>13</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6741,7 +6745,7 @@
         <v>11</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6752,7 +6756,7 @@
         <v>11</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6768,7 +6772,7 @@
         <v>19</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>1</v>
@@ -6793,12 +6797,12 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7652,6 +7656,1785 @@
       </c>
       <c r="F41" s="0" t="n">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L51"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -7677,6 +9460,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -8689,6 +10475,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -9649,9 +11438,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -10649,6 +12435,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -11564,7 +13353,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12360,9 +14149,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -13357,6 +15143,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -14160,6 +15949,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">

--- a/data/Austerlitz_seizoen_2016-2017.xlsx
+++ b/data/Austerlitz_seizoen_2016-2017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="18"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="2016-09-02" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,6 +27,7 @@
     <sheet name="2016-12-23" sheetId="17" state="visible" r:id="rId18"/>
     <sheet name="2017-01-06" sheetId="18" state="visible" r:id="rId19"/>
     <sheet name="2017-01-13" sheetId="19" state="visible" r:id="rId20"/>
+    <sheet name="2017-01-20" sheetId="20" state="visible" r:id="rId21"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
@@ -36,6 +37,7 @@
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="50">
   <si>
     <t xml:space="preserve">Baan</t>
   </si>
@@ -309,7 +311,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1065,9 +1067,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1951,6 +1950,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2871,9 +2873,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3786,7 +3785,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4660,7 +4659,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5576,6 +5575,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -6498,9 +6500,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -6801,9 +6800,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -7681,9 +7677,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -8747,13 +8740,13 @@
   </sheetPr>
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9461,7 +9454,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10449,6 +10442,880 @@
         <v>1</v>
       </c>
       <c r="F47" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L41"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -10476,7 +11343,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11438,6 +12305,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -12436,7 +13306,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13352,9 +14222,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -14149,6 +15016,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -15144,7 +16014,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15950,7 +16820,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/data/Austerlitz_seizoen_2016-2017.xlsx
+++ b/data/Austerlitz_seizoen_2016-2017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="19"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="2016-09-02" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,6 +28,10 @@
     <sheet name="2017-01-06" sheetId="18" state="visible" r:id="rId19"/>
     <sheet name="2017-01-13" sheetId="19" state="visible" r:id="rId20"/>
     <sheet name="2017-01-20" sheetId="20" state="visible" r:id="rId21"/>
+    <sheet name="2017-01-27" sheetId="21" state="visible" r:id="rId22"/>
+    <sheet name="2017-02-03" sheetId="22" state="visible" r:id="rId23"/>
+    <sheet name="2017-02-10" sheetId="23" state="visible" r:id="rId24"/>
+    <sheet name="2017-02-17" sheetId="24" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
@@ -38,6 +42,8 @@
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -49,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2179" uniqueCount="50">
   <si>
     <t xml:space="preserve">Baan</t>
   </si>
@@ -311,7 +317,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1067,6 +1073,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1951,7 +1960,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2873,6 +2882,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3785,7 +3797,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4658,9 +4670,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -5576,7 +5585,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6500,6 +6509,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -6800,6 +6812,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -7677,6 +7692,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -8746,7 +8764,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9454,7 +9472,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10463,8 +10481,3190 @@
   </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L35"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L37"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L35"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L35"/>
+  <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
+      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -10512,62 +13712,62 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10575,19 +13775,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10595,53 +13795,56 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="E6" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>109</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>2</v>
@@ -10655,16 +13858,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>2</v>
@@ -10672,16 +13875,16 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>0</v>
@@ -10692,76 +13895,76 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>3</v>
+      <c r="B13" s="0" t="s">
+        <v>40</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>0</v>
@@ -10772,16 +13975,16 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>2</v>
@@ -10792,16 +13995,16 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>0</v>
@@ -10812,16 +14015,16 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>0</v>
@@ -10835,13 +14038,13 @@
         <v>3</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>1</v>
@@ -10852,85 +14055,76 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>2</v>
@@ -10941,22 +14135,22 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10964,19 +14158,19 @@
         <v>3</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10984,13 +14178,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>2</v>
@@ -11001,22 +14195,25 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11024,16 +14221,16 @@
         <v>6</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>2</v>
@@ -11041,39 +14238,39 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>2</v>
@@ -11081,59 +14278,59 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>2</v>
@@ -11141,22 +14338,22 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>40</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11167,10 +14364,10 @@
         <v>1</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>2</v>
@@ -11181,141 +14378,21 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F38" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F39" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E40" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F40" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F41" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -11343,7 +14420,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12306,7 +15383,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13306,7 +16383,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14222,6 +17299,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -15017,7 +18097,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16014,7 +19094,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16820,7 +19900,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/data/Austerlitz_seizoen_2016-2017.xlsx
+++ b/data/Austerlitz_seizoen_2016-2017.xlsx
@@ -44,6 +44,7 @@
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -317,7 +318,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1074,7 +1075,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1959,9 +1960,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2883,7 +2881,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3797,7 +3795,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4670,6 +4668,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -5584,9 +5585,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -6510,7 +6508,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6813,7 +6811,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7693,7 +7691,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8764,7 +8762,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9472,7 +9470,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10486,6 +10484,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -11357,9 +11358,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -12120,9 +12118,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -12917,9 +12912,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -13664,12 +13656,12 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
+      <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13712,99 +13704,102 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>40</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>2</v>
@@ -13815,36 +13810,33 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>109</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>2</v>
@@ -13855,19 +13847,19 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>2</v>
@@ -13875,19 +13867,19 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>2</v>
@@ -13895,16 +13887,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>0</v>
@@ -13915,19 +13907,19 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>2</v>
@@ -13935,22 +13927,25 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>40</v>
+        <v>5</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>109</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13958,13 +13953,13 @@
         <v>3</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C14" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>12</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>0</v>
@@ -13975,13 +13970,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>40</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>24</v>
@@ -13990,81 +13985,84 @@
         <v>2</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="E18" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>103</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>0</v>
@@ -14075,79 +14073,79 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>35</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>2</v>
@@ -14155,16 +14153,16 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>0</v>
@@ -14175,22 +14173,22 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14198,39 +14196,36 @@
         <v>3</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" s="0" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>2</v>
@@ -14238,16 +14233,16 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>0</v>
@@ -14258,16 +14253,16 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>0</v>
@@ -14278,42 +14273,42 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14321,36 +14316,36 @@
         <v>4</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>40</v>
+      <c r="B33" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>2</v>
@@ -14358,16 +14353,16 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>2</v>
@@ -14378,16 +14373,16 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>1</v>
@@ -14420,7 +14415,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15382,9 +15377,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -16383,7 +16375,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17300,7 +17292,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18096,9 +18088,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -19094,7 +19083,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19900,7 +19889,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/data/Austerlitz_seizoen_2016-2017.xlsx
+++ b/data/Austerlitz_seizoen_2016-2017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="23"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="2016-09-02" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,6 +32,7 @@
     <sheet name="2017-02-03" sheetId="22" state="visible" r:id="rId23"/>
     <sheet name="2017-02-10" sheetId="23" state="visible" r:id="rId24"/>
     <sheet name="2017-02-17" sheetId="24" state="visible" r:id="rId25"/>
+    <sheet name="2017-02-24" sheetId="25" state="visible" r:id="rId26"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
@@ -45,6 +46,7 @@
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -56,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2179" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="50">
   <si>
     <t xml:space="preserve">Baan</t>
   </si>
@@ -318,7 +320,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1074,9 +1076,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1960,6 +1959,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2880,9 +2882,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3795,7 +3794,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4669,7 +4668,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5585,6 +5584,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -6507,9 +6509,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -6810,9 +6809,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -7690,9 +7686,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -8762,7 +8755,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9470,7 +9463,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10485,7 +10478,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11358,6 +11351,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -12118,6 +12114,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -12912,6 +12911,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -13655,8 +13657,759 @@
   </sheetPr>
   <dimension ref="A1:L35"/>
   <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L37"/>
+  <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -13704,19 +14457,19 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>2</v>
@@ -13727,42 +14480,42 @@
         <v>3</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>40</v>
+        <v>5</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13770,53 +14523,56 @@
         <v>6</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="E6" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>0</v>
@@ -13827,36 +14583,36 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>0</v>
@@ -13867,22 +14623,22 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13893,30 +14649,30 @@
         <v>4</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>0</v>
@@ -13933,33 +14689,30 @@
         <v>3</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>109</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>0</v>
@@ -13972,14 +14725,14 @@
       <c r="A15" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>40</v>
+      <c r="B15" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>2</v>
@@ -13990,22 +14743,22 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="E16" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14013,24 +14766,24 @@
         <v>4</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>3</v>
@@ -14039,16 +14792,13 @@
         <v>24</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="K18" s="0" t="n">
-        <v>103</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14056,13 +14806,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>0</v>
@@ -14073,22 +14823,22 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14096,19 +14846,19 @@
         <v>6</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14116,59 +14866,62 @@
         <v>5</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C24" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="E24" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14179,110 +14932,113 @@
         <v>2</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>2</v>
@@ -14293,36 +15049,36 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>2</v>
@@ -14336,16 +15092,16 @@
         <v>6</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>2</v>
@@ -14353,13 +15109,13 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>27</v>
@@ -14373,22 +15129,62 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -14415,7 +15211,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15377,6 +16173,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -16375,7 +17174,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17291,9 +18090,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -18088,6 +18884,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -19083,7 +19882,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19889,7 +20688,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/data/Austerlitz_seizoen_2016-2017.xlsx
+++ b/data/Austerlitz_seizoen_2016-2017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="24"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="2016-09-02" sheetId="1" state="visible" r:id="rId2"/>
@@ -33,6 +33,7 @@
     <sheet name="2017-02-10" sheetId="23" state="visible" r:id="rId24"/>
     <sheet name="2017-02-17" sheetId="24" state="visible" r:id="rId25"/>
     <sheet name="2017-02-24" sheetId="25" state="visible" r:id="rId26"/>
+    <sheet name="2017-03-03" sheetId="26" state="visible" r:id="rId27"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
@@ -47,6 +48,7 @@
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -58,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2353" uniqueCount="50">
   <si>
     <t xml:space="preserve">Baan</t>
   </si>
@@ -319,9 +321,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1076,6 +1075,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1960,7 +1962,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2882,6 +2884,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3793,9 +3798,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4668,7 +4670,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5585,7 +5587,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6509,6 +6511,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -6809,6 +6814,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -7686,6 +7694,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -8754,9 +8765,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -9462,9 +9470,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -10478,7 +10483,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11352,7 +11357,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12115,7 +12120,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12912,7 +12917,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13662,6 +13667,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -14408,13 +14416,807 @@
   </sheetPr>
   <dimension ref="A1:L37"/>
   <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L39"/>
+  <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14460,19 +15262,19 @@
         <v>6</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14480,13 +15282,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>1</v>
@@ -14500,33 +15302,30 @@
         <v>5</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>20</v>
@@ -14537,48 +15336,45 @@
       <c r="F5" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G5" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14586,13 +15382,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>2</v>
@@ -14603,82 +15399,82 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14686,13 +15482,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>0</v>
@@ -14703,76 +15499,76 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>33</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>0</v>
@@ -14783,22 +15579,22 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14806,19 +15602,19 @@
         <v>4</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14829,16 +15625,16 @@
         <v>3</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14846,13 +15642,13 @@
         <v>6</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>2</v>
@@ -14863,19 +15659,19 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>2</v>
@@ -14883,25 +15679,22 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14909,19 +15702,22 @@
         <v>4</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14929,13 +15725,13 @@
         <v>6</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>2</v>
@@ -14946,99 +15742,99 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H28" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>2</v>
@@ -15049,56 +15845,56 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C31" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="0" t="s">
-        <v>22</v>
-      </c>
       <c r="E31" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>16</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>0</v>
@@ -15109,22 +15905,22 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15132,13 +15928,13 @@
         <v>5</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>2</v>
@@ -15149,13 +15945,13 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>30</v>
@@ -15169,22 +15965,62 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C37" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>0</v>
+      <c r="D38" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -15210,9 +16046,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -16174,7 +17007,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17173,9 +18006,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -18090,6 +18920,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -18885,7 +19718,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19881,9 +20714,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -20687,9 +21517,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">

--- a/data/Austerlitz_seizoen_2016-2017.xlsx
+++ b/data/Austerlitz_seizoen_2016-2017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="25"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="2016-09-02" sheetId="1" state="visible" r:id="rId2"/>
@@ -34,6 +34,7 @@
     <sheet name="2017-02-17" sheetId="24" state="visible" r:id="rId25"/>
     <sheet name="2017-02-24" sheetId="25" state="visible" r:id="rId26"/>
     <sheet name="2017-03-03" sheetId="26" state="visible" r:id="rId27"/>
+    <sheet name="2017-03-10" sheetId="27" state="visible" r:id="rId28"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
@@ -49,6 +50,7 @@
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -60,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2353" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2427" uniqueCount="50">
   <si>
     <t xml:space="preserve">Baan</t>
   </si>
@@ -321,6 +323,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1076,7 +1081,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1962,7 +1967,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2885,7 +2890,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3798,6 +3803,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4669,9 +4677,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -5587,7 +5592,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6512,7 +6517,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6815,7 +6820,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7695,7 +7700,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8765,6 +8770,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -9470,6 +9478,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -10482,9 +10493,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -11357,7 +11365,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12120,7 +12128,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12917,7 +12925,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13668,7 +13676,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14421,6 +14429,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -15210,8 +15221,839 @@
   </sheetPr>
   <dimension ref="A1:L39"/>
   <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L31"/>
+  <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
+      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -15259,42 +16101,42 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15305,16 +16147,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15325,30 +16167,30 @@
         <v>1</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>2</v>
@@ -15359,13 +16201,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>26</v>
@@ -15374,6 +16216,9 @@
         <v>2</v>
       </c>
       <c r="F7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -15385,70 +16230,73 @@
         <v>1</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>40</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>40</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>0</v>
@@ -15459,96 +16307,96 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>2</v>
@@ -15559,42 +16407,42 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15605,76 +16453,79 @@
         <v>3</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15682,19 +16533,22 @@
         <v>5</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15702,22 +16556,19 @@
         <v>4</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H24" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15728,16 +16579,19 @@
         <v>3</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15745,36 +16599,33 @@
         <v>4</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G26" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>1</v>
@@ -15785,16 +16636,16 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>2</v>
@@ -15805,36 +16656,36 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>2</v>
@@ -15845,182 +16696,22 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>2</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F32" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F39" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -16046,6 +16737,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -17007,7 +17701,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18006,6 +18700,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -18921,7 +19618,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19718,7 +20415,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20714,6 +21411,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -21517,6 +22217,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">

--- a/data/Austerlitz_seizoen_2016-2017.xlsx
+++ b/data/Austerlitz_seizoen_2016-2017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="26"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="2016-09-02" sheetId="1" state="visible" r:id="rId2"/>
@@ -35,6 +35,7 @@
     <sheet name="2017-02-24" sheetId="25" state="visible" r:id="rId26"/>
     <sheet name="2017-03-03" sheetId="26" state="visible" r:id="rId27"/>
     <sheet name="2017-03-10" sheetId="27" state="visible" r:id="rId28"/>
+    <sheet name="2017-03-17" sheetId="28" state="visible" r:id="rId29"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
@@ -51,6 +52,7 @@
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -62,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2427" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2509" uniqueCount="50">
   <si>
     <t xml:space="preserve">Baan</t>
   </si>
@@ -324,7 +326,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1081,7 +1083,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1966,9 +1968,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2890,7 +2889,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3804,7 +3803,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4677,6 +4676,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -5591,9 +5593,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -6517,7 +6516,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6820,7 +6819,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7700,7 +7699,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8771,7 +8770,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9479,7 +9478,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10493,6 +10492,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -11364,9 +11366,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -12127,9 +12126,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -12924,9 +12920,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -13676,7 +13669,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14430,7 +14423,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15226,9 +15219,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -16052,8 +16042,688 @@
   </sheetPr>
   <dimension ref="A1:L31"/>
   <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L35"/>
+  <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
+      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -16101,42 +16771,45 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16144,19 +16817,25 @@
         <v>5</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16164,13 +16843,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>2</v>
@@ -16181,16 +16860,16 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>12</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>2</v>
@@ -16201,25 +16880,22 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16227,16 +16903,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>2</v>
@@ -16244,16 +16920,16 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>0</v>
@@ -16264,122 +16940,125 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>40</v>
+        <v>5</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H10" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>40</v>
+        <v>3</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="E14" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>2</v>
@@ -16390,19 +17069,19 @@
         <v>5</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16413,50 +17092,50 @@
         <v>3</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="E18" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>1</v>
@@ -16467,45 +17146,42 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" s="0" t="n">
-        <v>130</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16513,59 +17189,56 @@
         <v>6</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>2</v>
@@ -16576,59 +17249,56 @@
         <v>6</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G25" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B27" s="0" t="n">
-        <v>2</v>
+      <c r="B27" s="0" t="s">
+        <v>40</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>28</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>2</v>
@@ -16636,82 +17306,165 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>40</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C31" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>2</v>
+      <c r="D32" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -16738,7 +17491,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17700,9 +18453,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -18701,7 +19451,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19618,7 +20368,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20414,9 +21164,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -21412,7 +22159,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22218,7 +22965,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/data/Austerlitz_seizoen_2016-2017.xlsx
+++ b/data/Austerlitz_seizoen_2016-2017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="27"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="2016-09-02" sheetId="1" state="visible" r:id="rId2"/>
@@ -36,6 +36,7 @@
     <sheet name="2017-03-03" sheetId="26" state="visible" r:id="rId27"/>
     <sheet name="2017-03-10" sheetId="27" state="visible" r:id="rId28"/>
     <sheet name="2017-03-17" sheetId="28" state="visible" r:id="rId29"/>
+    <sheet name="2017-03-24" sheetId="29" state="visible" r:id="rId30"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
@@ -53,6 +54,7 @@
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -64,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2509" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2577" uniqueCount="50">
   <si>
     <t xml:space="preserve">Baan</t>
   </si>
@@ -326,7 +328,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1082,9 +1084,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1968,6 +1967,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2888,9 +2890,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3803,7 +3802,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4677,7 +4676,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5593,6 +5592,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -6515,9 +6517,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -6818,9 +6817,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -7698,9 +7694,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -8770,7 +8763,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9478,7 +9471,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10493,7 +10486,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11366,6 +11359,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -12126,6 +12122,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -12920,6 +12919,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -13668,9 +13670,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -14423,7 +14422,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15219,6 +15218,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -16047,9 +16049,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -16722,8 +16721,771 @@
   </sheetPr>
   <dimension ref="A1:L35"/>
   <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L29"/>
+  <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -16770,72 +17532,69 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="0" t="s">
+      <c r="A2" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="E2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="E3" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="E4" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16843,33 +17602,33 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>2</v>
@@ -16880,62 +17639,65 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16946,119 +17708,122 @@
         <v>3</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="E11" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="E13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C14" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>18</v>
-      </c>
       <c r="E14" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>2</v>
@@ -17072,10 +17837,10 @@
         <v>3</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>0</v>
@@ -17086,16 +17851,16 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>0</v>
@@ -17106,33 +17871,36 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>24</v>
@@ -17146,22 +17914,22 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17169,33 +17937,33 @@
         <v>3</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>0</v>
@@ -17206,62 +17974,68 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17269,201 +18043,81 @@
         <v>3</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>40</v>
+        <v>3</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>40</v>
+        <v>4</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F30" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F35" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17491,7 +18145,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18453,6 +19107,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -19451,7 +20108,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20367,9 +21024,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -21164,6 +21818,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -22159,7 +22816,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22965,7 +23622,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/data/Austerlitz_seizoen_2016-2017.xlsx
+++ b/data/Austerlitz_seizoen_2016-2017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="28"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="2016-09-02" sheetId="1" state="visible" r:id="rId2"/>
@@ -37,6 +37,7 @@
     <sheet name="2017-03-10" sheetId="27" state="visible" r:id="rId28"/>
     <sheet name="2017-03-17" sheetId="28" state="visible" r:id="rId29"/>
     <sheet name="2017-03-24" sheetId="29" state="visible" r:id="rId30"/>
+    <sheet name="2017-03-31" sheetId="30" state="visible" r:id="rId31"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
@@ -55,6 +56,7 @@
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -66,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2577" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2653" uniqueCount="50">
   <si>
     <t xml:space="preserve">Baan</t>
   </si>
@@ -327,9 +329,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1084,6 +1083,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1968,7 +1970,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2890,6 +2892,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3801,9 +3806,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4676,7 +4678,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5593,7 +5595,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6517,6 +6519,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -6817,6 +6822,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -7694,6 +7702,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -8762,9 +8773,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -9470,9 +9478,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -10486,7 +10491,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11360,7 +11365,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12123,7 +12128,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12920,7 +12925,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13670,6 +13675,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -14421,9 +14429,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -15219,7 +15224,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16049,6 +16054,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -16726,9 +16734,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -17484,13 +17489,13 @@
   </sheetPr>
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18144,8 +18149,968 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" s="1" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F42" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F45" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18187,901 +19152,664 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="A2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="E13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D19" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D22" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L6" s="1" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="E24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="E31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F13" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F14" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="D32" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F18" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G19" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F20" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="E32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F21" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F24" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B25" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B27" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F27" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B28" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F28" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B29" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B30" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B31" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B32" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G32" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B33" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F33" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K33" s="1" t="n">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B34" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B35" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B36" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B37" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E37" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B38" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E38" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F38" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B39" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F39" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B40" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E40" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F40" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B41" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E41" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F41" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B42" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F42" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B43" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E43" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F43" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B44" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E44" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B45" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F45" s="1" t="n">
-        <v>1</v>
+      <c r="E33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -19108,7 +19836,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20107,9 +20835,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -21024,6 +21749,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -21819,7 +22547,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22815,9 +23543,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -23621,9 +24346,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">

--- a/data/Austerlitz_seizoen_2016-2017.xlsx
+++ b/data/Austerlitz_seizoen_2016-2017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="29"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="30"/>
   </bookViews>
   <sheets>
     <sheet name="2016-09-02" sheetId="1" state="visible" r:id="rId2"/>
@@ -38,6 +38,7 @@
     <sheet name="2017-03-17" sheetId="28" state="visible" r:id="rId29"/>
     <sheet name="2017-03-24" sheetId="29" state="visible" r:id="rId30"/>
     <sheet name="2017-03-31" sheetId="30" state="visible" r:id="rId31"/>
+    <sheet name="2017-04-07" sheetId="31" state="visible" r:id="rId32"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
@@ -57,6 +58,7 @@
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -68,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2653" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="50">
   <si>
     <t xml:space="preserve">Baan</t>
   </si>
@@ -329,6 +331,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1084,7 +1089,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1970,7 +1975,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2893,7 +2898,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3806,6 +3811,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4677,9 +4685,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -5595,7 +5600,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6520,7 +6525,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6823,7 +6828,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7703,7 +7708,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8773,6 +8778,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -9478,6 +9486,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -10490,9 +10501,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -11365,7 +11373,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12128,7 +12136,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12925,7 +12933,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13676,7 +13684,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14429,6 +14437,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -15224,7 +15235,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16055,7 +16066,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16734,6 +16745,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -17494,9 +17508,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -18149,6 +18160,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -19104,8 +19118,734 @@
   </sheetPr>
   <dimension ref="A1:L33"/>
   <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L29"/>
+  <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
+      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -19153,139 +19893,136 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="E4" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>0</v>
@@ -19296,16 +20033,16 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>0</v>
@@ -19316,22 +20053,22 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19339,33 +20076,36 @@
         <v>5</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>0</v>
@@ -19376,48 +20116,45 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="G13" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19425,33 +20162,33 @@
         <v>6</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>0</v>
@@ -19462,16 +20199,16 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>2</v>
@@ -19482,36 +20219,36 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>2</v>
@@ -19525,13 +20262,13 @@
         <v>6</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>2</v>
@@ -19545,56 +20282,56 @@
         <v>3</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>2</v>
@@ -19602,114 +20339,102 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="G24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H24" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L27" s="0" t="n">
-        <v>112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H28" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19717,98 +20442,21 @@
         <v>5</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F30" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F32" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -19836,7 +20484,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20835,6 +21483,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -21750,7 +22401,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22547,7 +23198,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23543,6 +24194,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -24346,6 +25000,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">

--- a/data/Austerlitz_seizoen_2016-2017.xlsx
+++ b/data/Austerlitz_seizoen_2016-2017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="30"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="31"/>
   </bookViews>
   <sheets>
     <sheet name="2016-09-02" sheetId="1" state="visible" r:id="rId2"/>
@@ -39,6 +39,7 @@
     <sheet name="2017-03-24" sheetId="29" state="visible" r:id="rId30"/>
     <sheet name="2017-03-31" sheetId="30" state="visible" r:id="rId31"/>
     <sheet name="2017-04-07" sheetId="31" state="visible" r:id="rId32"/>
+    <sheet name="2017-04-14" sheetId="32" state="visible" r:id="rId33"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
@@ -59,6 +60,7 @@
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'2016-12-09'!$A$1:$L$43</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -70,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2797" uniqueCount="50">
   <si>
     <t xml:space="preserve">Baan</t>
   </si>
@@ -332,7 +334,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1089,7 +1091,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1974,9 +1976,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2898,7 +2897,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3812,7 +3811,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4685,6 +4684,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -5599,9 +5601,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -6525,7 +6524,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6828,7 +6827,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7708,7 +7707,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8779,7 +8778,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9487,7 +9486,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10501,6 +10500,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -11372,9 +11374,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -12135,9 +12134,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -12932,9 +12928,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -13684,7 +13677,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14438,7 +14431,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15234,9 +15227,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -16066,7 +16056,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16746,7 +16736,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17508,6 +17498,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -18161,7 +18154,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19123,9 +19116,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -19844,8 +19834,642 @@
   </sheetPr>
   <dimension ref="A1:L29"/>
   <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L33"/>
+  <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
+      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -19893,76 +20517,79 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>0</v>
@@ -19973,42 +20600,42 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20016,13 +20643,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>0</v>
@@ -20033,16 +20660,16 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>0</v>
@@ -20053,16 +20680,16 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>0</v>
@@ -20073,42 +20700,39 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>2</v>
@@ -20116,25 +20740,22 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20145,7 +20766,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>24</v>
@@ -20154,21 +20775,21 @@
         <v>2</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>2</v>
@@ -20179,36 +20800,36 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="E16" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>2</v>
@@ -20222,19 +20843,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>105</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20242,19 +20866,19 @@
         <v>5</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20262,19 +20886,19 @@
         <v>6</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>29</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20282,90 +20906,99 @@
         <v>3</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H21" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>20</v>
@@ -20379,16 +21012,16 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>2</v>
@@ -20402,62 +21035,142 @@
         <v>5</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="0" t="n">
-        <v>2</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -20483,9 +21196,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -21484,7 +22194,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22401,7 +23111,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23197,9 +23907,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -24195,7 +24902,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25001,7 +25708,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
